--- a/biology/Zoologie/Gymnoscelis_rubricata/Gymnoscelis_rubricata.xlsx
+++ b/biology/Zoologie/Gymnoscelis_rubricata/Gymnoscelis_rubricata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnoscelis rubricata est une espèce de lépidoptères (papillons) de la famille des Geometridae.
 Son envergure est d'environ 14 mm, et elle est endémique de La Réunion et de l'île Maurice, où elle est très répandue à basse et moyenne altitude.
